--- a/maddpg-master/experiments/policys/实验记录.xlsx
+++ b/maddpg-master/experiments/policys/实验记录.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26F621C-4F8A-4637-97D8-CFA9DD8B4417}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1276FF1C-5AD9-493D-8362-9F9C75263C44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TF-based" sheetId="1" r:id="rId1"/>
+    <sheet name="Pytorch-based" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="108">
   <si>
     <t>文件名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,6 +131,336 @@
   </si>
   <si>
     <t>reward_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR小于5dB时强制置零</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增对比条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp_4/exp_4_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR小于5dB时强制置零
+去掉力对无人机速度的影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR小于5dB时强制置零
+只去掉环境力的影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR小于5dB时强制置零
+只去掉环境力的影响
+增加切换次负奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reward_2
+增加切换次负奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp_8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp_9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于exp_7, 不使用shared reward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp_11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp_12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp_11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp_12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reward_3
+增加切换次负奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp_13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp_13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>local q func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟11一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp_14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR小于5dB时强制置零
+只去掉环境力的影响
+增加切换次负奖励
+shared reward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp_15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用assign替换原来的comm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp_16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加assign和SNR为观测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp_17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp_18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加了功率分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp_19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR小于5dB时强制置零
+只去掉环境力的影响
+shared reward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加assign和SNR为观测，去掉切换次负奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般，震荡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp_20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非常好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp_21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将SNR和assign放到观测里，没有归一化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加assign和SNR和pow为观测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>震荡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp_22</t>
+  </si>
+  <si>
+    <t>一般</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非常差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000/100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp_torch_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp_torch_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带宽分配和速度加上了噪声</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp_torch_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只给带宽分配加上了噪声，因为在计算力的时候已经加了噪声了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收敛可以</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相比上一个收敛稍差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收敛比4差，比5好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp_torch7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加assign和SNR和功率分配为观测，去掉切换次负奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有力加了噪声</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp_23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp_24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复了bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去掉bug反而更不好了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有bug，带宽和功率用的同一个动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp_25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去掉了带宽分配，只有功率分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp_torch8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作p直接用等号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -137,7 +468,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,8 +494,40 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,8 +557,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -200,46 +588,179 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="44">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="5">
+    <cellStyle name="60% - 着色 4" xfId="4" builtinId="44"/>
+    <cellStyle name="差" xfId="2" builtinId="27"/>
+    <cellStyle name="常规" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="适中" xfId="3" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -260,16 +781,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>14</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>198120</xdr:rowOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>247650</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>15</xdr:col>
-          <xdr:colOff>533400</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>68580</xdr:rowOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>2228850</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>266700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -315,16 +836,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>14</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>220980</xdr:rowOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>123825</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>15</xdr:col>
-          <xdr:colOff>731520</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>91440</xdr:rowOff>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>104775</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>285750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -335,6 +856,231 @@
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>304800</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>19</xdr:col>
+          <xdr:colOff>123825</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1027" name="Object 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1027"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>21</xdr:col>
+          <xdr:colOff>333375</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>24</xdr:col>
+          <xdr:colOff>590550</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2049" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2049"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>21</xdr:col>
+          <xdr:colOff>514350</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>27</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>257175</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2050" name="Object 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2050"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>21</xdr:col>
+          <xdr:colOff>323850</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>24</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>209550</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2051" name="Object 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2051"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -632,104 +1378,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="25.15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="1" customWidth="1"/>
-    <col min="5" max="7" width="9.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="1"/>
-    <col min="12" max="12" width="11.5546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="20.77734375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="6.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.75" style="38" customWidth="1"/>
+    <col min="11" max="11" width="8.875" style="1"/>
+    <col min="12" max="12" width="9.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.75" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="25.125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="30.625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="21.375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="19.875" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:18" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4" t="s">
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="9" t="s">
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="41" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5" t="s">
+      <c r="Q1" s="40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="9"/>
-      <c r="P2" s="4"/>
-    </row>
-    <row r="3" spans="1:16" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="43"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="40"/>
+    </row>
+    <row r="3" spans="1:18" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -757,7 +1513,7 @@
       <c r="I3" s="1">
         <v>0.8</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="38">
         <v>0.01</v>
       </c>
       <c r="K3" s="1" t="s">
@@ -775,18 +1531,19 @@
       <c r="O3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q3" s="17"/>
+    </row>
+    <row r="4" spans="1:18" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="10">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -795,7 +1552,7 @@
       <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="10">
         <v>10</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -807,7 +1564,7 @@
       <c r="I4" s="1">
         <v>0.8</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="38">
         <v>0.01</v>
       </c>
       <c r="K4" s="1" t="s">
@@ -825,12 +1582,1289 @@
       <c r="O4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="Q4" s="17"/>
+    </row>
+    <row r="5" spans="1:18" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="J5" s="38">
+        <v>0.01</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="1">
+        <v>100</v>
+      </c>
+      <c r="M5" s="1">
+        <v>100</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1024</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1">
+        <v>10</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="J6" s="38">
+        <v>0.01</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="1">
+        <v>100</v>
+      </c>
+      <c r="M6" s="1">
+        <v>100</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1024</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q6" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="1">
+        <v>10</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="J7" s="38">
+        <v>0.01</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="1">
+        <v>100</v>
+      </c>
+      <c r="M7" s="1">
+        <v>100</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1024</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q7" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="7" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="7">
+        <v>3</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="7">
+        <v>10</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="J8" s="38">
+        <v>0.01</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="7">
+        <v>100</v>
+      </c>
+      <c r="M8" s="7">
+        <v>100</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1024</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q8" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="13" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="13">
+        <v>3</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="13">
+        <v>10</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="J9" s="38">
+        <v>0.01</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="13">
+        <v>100</v>
+      </c>
+      <c r="M9" s="13">
+        <v>100</v>
+      </c>
+      <c r="N9" s="13">
+        <v>1024</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q9" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="14" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="14">
+        <v>3</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="14">
+        <v>10</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="J10" s="38">
+        <v>0.01</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="14">
+        <v>100</v>
+      </c>
+      <c r="M10" s="14">
+        <v>100</v>
+      </c>
+      <c r="N10" s="14">
+        <v>1024</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q10" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="15" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="15">
+        <v>3</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="15">
+        <v>10</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="10">
+        <v>0</v>
+      </c>
+      <c r="J11" s="38">
+        <v>0.01</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="15">
+        <v>100</v>
+      </c>
+      <c r="M11" s="15">
+        <v>100</v>
+      </c>
+      <c r="N11" s="15">
+        <v>1024</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q11" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="16">
+        <v>3</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="16">
+        <v>10</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="J12" s="38">
+        <v>0.01</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="16">
+        <v>100</v>
+      </c>
+      <c r="M12" s="16">
+        <v>100</v>
+      </c>
+      <c r="N12" s="16">
+        <v>1024</v>
+      </c>
+      <c r="O12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="16" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="16">
+        <v>3</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="16">
+        <v>10</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="J13" s="38">
+        <v>0.01</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="16">
+        <v>100</v>
+      </c>
+      <c r="M13" s="16">
+        <v>100</v>
+      </c>
+      <c r="N13" s="16">
+        <v>1024</v>
+      </c>
+      <c r="O13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q13" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="16" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="16">
+        <v>3</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="16">
+        <v>10</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="J14" s="38">
+        <v>0.01</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="16">
+        <v>100</v>
+      </c>
+      <c r="M14" s="16">
+        <v>100</v>
+      </c>
+      <c r="N14" s="16">
+        <v>1024</v>
+      </c>
+      <c r="O14" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q14" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="16" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="16">
+        <v>3</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="16">
+        <v>10</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="J15" s="38">
+        <v>0.01</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="16">
+        <v>100</v>
+      </c>
+      <c r="M15" s="16">
+        <v>100</v>
+      </c>
+      <c r="N15" s="16">
+        <v>1024</v>
+      </c>
+      <c r="O15" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="P15" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="21" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="21">
+        <v>3</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="21">
+        <v>10</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="21">
+        <v>0.8</v>
+      </c>
+      <c r="J16" s="38">
+        <v>0.01</v>
+      </c>
+      <c r="K16" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="21">
+        <v>100</v>
+      </c>
+      <c r="M16" s="21">
+        <v>100</v>
+      </c>
+      <c r="N16" s="21">
+        <v>1024</v>
+      </c>
+      <c r="O16" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="P16" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q16" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="R16" s="25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="23">
+        <v>3</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="23">
+        <v>10</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="J17" s="38">
+        <v>0.01</v>
+      </c>
+      <c r="K17" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="23">
+        <v>100</v>
+      </c>
+      <c r="M17" s="23">
+        <v>100</v>
+      </c>
+      <c r="N17" s="23">
+        <v>1024</v>
+      </c>
+      <c r="O17" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q17" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="R17" s="25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="23">
+        <v>3</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="23">
+        <v>10</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="J18" s="38">
+        <v>0.01</v>
+      </c>
+      <c r="K18" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="23">
+        <v>100</v>
+      </c>
+      <c r="M18" s="23">
+        <v>100</v>
+      </c>
+      <c r="N18" s="23">
+        <v>1024</v>
+      </c>
+      <c r="O18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="P18" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q18" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="R18" s="25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="23">
+        <v>3</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="23">
+        <v>10</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="J19" s="38">
+        <v>0.01</v>
+      </c>
+      <c r="K19" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="23">
+        <v>100</v>
+      </c>
+      <c r="M19" s="23">
+        <v>100</v>
+      </c>
+      <c r="N19" s="23">
+        <v>1024</v>
+      </c>
+      <c r="O19" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q19" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="R19" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="23">
+        <v>3</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="23">
+        <v>10</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="J20" s="38">
+        <v>0.01</v>
+      </c>
+      <c r="K20" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="23">
+        <v>100</v>
+      </c>
+      <c r="M20" s="23">
+        <v>100</v>
+      </c>
+      <c r="N20" s="23">
+        <v>1024</v>
+      </c>
+      <c r="O20" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="P20" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q20" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="R20" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="S20" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="T20" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="23">
+        <v>3</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="23">
+        <v>10</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="J21" s="38">
+        <v>0.01</v>
+      </c>
+      <c r="K21" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="23">
+        <v>100</v>
+      </c>
+      <c r="M21" s="23">
+        <v>100</v>
+      </c>
+      <c r="N21" s="23">
+        <v>1024</v>
+      </c>
+      <c r="O21" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q21" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="R21" s="25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="23">
+        <v>3</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="23">
+        <v>10</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="J22" s="38">
+        <v>0.01</v>
+      </c>
+      <c r="K22" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22">
+        <v>100</v>
+      </c>
+      <c r="M22">
+        <v>100</v>
+      </c>
+      <c r="N22">
+        <v>1024</v>
+      </c>
+      <c r="O22" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="P22" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q22" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="R22" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="S22" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="T22" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" s="26" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="26">
+        <v>3</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="26">
+        <v>10</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="J23" s="38">
+        <v>0.01</v>
+      </c>
+      <c r="K23" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="26">
+        <v>100</v>
+      </c>
+      <c r="M23" s="26">
+        <v>100</v>
+      </c>
+      <c r="N23" s="26">
+        <v>1024</v>
+      </c>
+      <c r="O23" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="P23" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q23" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="R23" s="25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="28">
+        <v>3</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="28">
+        <v>10</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="28">
+        <v>0.8</v>
+      </c>
+      <c r="J24" s="38">
+        <v>0.01</v>
+      </c>
+      <c r="K24" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="M24" s="28">
+        <v>10</v>
+      </c>
+      <c r="N24" s="28">
+        <v>256</v>
+      </c>
+      <c r="O24" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="P24" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q24" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="R24" s="25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" s="30" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="30">
+        <v>3</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="30">
+        <v>10</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="J25" s="38">
+        <v>0.01</v>
+      </c>
+      <c r="K25" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="30">
+        <v>100</v>
+      </c>
+      <c r="M25" s="30">
+        <v>100</v>
+      </c>
+      <c r="N25" s="11">
+        <v>128</v>
+      </c>
+      <c r="O25" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="P25" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q25" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="R25" s="25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" s="33" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="33">
+        <v>3</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="33">
+        <v>10</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" s="33">
+        <v>0.8</v>
+      </c>
+      <c r="J26" s="38">
+        <v>0.01</v>
+      </c>
+      <c r="K26" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26">
+        <v>100</v>
+      </c>
+      <c r="M26">
+        <v>100</v>
+      </c>
+      <c r="N26">
+        <v>1024</v>
+      </c>
+      <c r="O26" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="P26" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q26" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="R26" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="S26" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="T26" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" s="35" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="35">
+        <v>3</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="35">
+        <v>10</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="35">
+        <v>0.8</v>
+      </c>
+      <c r="J27" s="38">
+        <v>0.01</v>
+      </c>
+      <c r="K27" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27">
+        <v>100</v>
+      </c>
+      <c r="M27">
+        <v>100</v>
+      </c>
+      <c r="N27">
+        <v>1024</v>
+      </c>
+      <c r="O27" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="P27"/>
+      <c r="Q27" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="R27" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="S27" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="T27"/>
+    </row>
+    <row r="31" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R31" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -846,52 +2880,815 @@
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.DSMT4" shapeId="1025" r:id="rId4">
-          <objectPr defaultSize="0" r:id="rId5">
+        <oleObject progId="Equation.DSMT4" shapeId="1026" r:id="rId4">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>123825</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>198120</xdr:rowOff>
+                <xdr:rowOff>95250</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>533400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>68580</xdr:rowOff>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>285750</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.DSMT4" shapeId="1025" r:id="rId4"/>
+        <oleObject progId="Equation.DSMT4" shapeId="1026" r:id="rId4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.DSMT4" shapeId="1026" r:id="rId6">
-          <objectPr defaultSize="0" r:id="rId7">
+        <oleObject progId="Equation.DSMT4" shapeId="1027" r:id="rId6">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
                 <xdr:row>8</xdr:row>
-                <xdr:rowOff>220980</xdr:rowOff>
+                <xdr:rowOff>104775</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>731520</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>91440</xdr:rowOff>
+                <xdr:col>19</xdr:col>
+                <xdr:colOff>123825</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.DSMT4" shapeId="1026" r:id="rId6"/>
+        <oleObject progId="Equation.DSMT4" shapeId="1027" r:id="rId6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1025" r:id="rId8">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>247650</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>2228850</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>266700</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="1025" r:id="rId8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C98F8AC-6DD1-4470-B0DB-4BE9205C5DFB}">
+  <dimension ref="A1:U37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.875" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="6.25" customWidth="1"/>
+    <col min="5" max="5" width="7.625" customWidth="1"/>
+    <col min="6" max="6" width="5.5" customWidth="1"/>
+    <col min="9" max="9" width="5.5" customWidth="1"/>
+    <col min="10" max="10" width="7.5" style="39" customWidth="1"/>
+    <col min="12" max="12" width="7.125" customWidth="1"/>
+    <col min="15" max="15" width="15.375" customWidth="1"/>
+    <col min="16" max="16" width="19.25" customWidth="1"/>
+    <col min="17" max="17" width="18.625" customWidth="1"/>
+    <col min="18" max="18" width="33.125" customWidth="1"/>
+    <col min="19" max="19" width="18.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" s="30" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="30" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="42"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="40"/>
+    </row>
+    <row r="3" spans="1:21" s="30" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="30">
+        <v>4</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="30">
+        <v>3</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="30">
+        <v>10</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="J3" s="38">
+        <v>0.01</v>
+      </c>
+      <c r="K3" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="30">
+        <v>100</v>
+      </c>
+      <c r="M3" s="30">
+        <v>100</v>
+      </c>
+      <c r="N3" s="30">
+        <v>1024</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q3" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="R3" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="30" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="30">
+        <v>5</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="30">
+        <v>3</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="30">
+        <v>10</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="J4" s="38">
+        <v>0.01</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="30">
+        <v>100</v>
+      </c>
+      <c r="M4" s="30">
+        <v>100</v>
+      </c>
+      <c r="N4" s="30">
+        <v>1024</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q4" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="R4" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="S4" s="30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="30" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="30">
+        <v>6</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="30">
+        <v>3</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="30">
+        <v>10</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="J5" s="38">
+        <v>0.01</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="30">
+        <v>100</v>
+      </c>
+      <c r="M5" s="30">
+        <v>100</v>
+      </c>
+      <c r="N5" s="30">
+        <v>1024</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q5" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="R5" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="S5" s="30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="33" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="33">
+        <v>7</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="33">
+        <v>3</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="33">
+        <v>10</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="33">
+        <v>0.8</v>
+      </c>
+      <c r="J6" s="38">
+        <v>0.01</v>
+      </c>
+      <c r="K6" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="33">
+        <v>100</v>
+      </c>
+      <c r="M6" s="33">
+        <v>100</v>
+      </c>
+      <c r="N6" s="33">
+        <v>1024</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6"/>
+      <c r="Q6" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="R6" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="S6" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="U6" s="33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="35" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="35">
+        <v>7</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="35">
+        <v>3</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="35">
+        <v>10</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="35">
+        <v>0.8</v>
+      </c>
+      <c r="J7" s="38">
+        <v>0.01</v>
+      </c>
+      <c r="K7" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="35">
+        <v>100</v>
+      </c>
+      <c r="M7" s="35">
+        <v>100</v>
+      </c>
+      <c r="N7" s="35">
+        <v>1024</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q7" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="R7" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="S7" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="T7" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="30" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G8"/>
+      <c r="J8" s="38"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="25"/>
+    </row>
+    <row r="9" spans="1:21" s="30" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G9"/>
+      <c r="J9" s="38"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="25"/>
+    </row>
+    <row r="10" spans="1:21" s="30" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G10"/>
+      <c r="J10" s="38"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="25"/>
+    </row>
+    <row r="11" spans="1:21" s="30" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G11"/>
+      <c r="J11" s="38"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="25"/>
+    </row>
+    <row r="12" spans="1:21" s="30" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G12"/>
+      <c r="J12" s="38"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="25"/>
+    </row>
+    <row r="13" spans="1:21" s="30" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G13"/>
+      <c r="J13" s="38"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="25"/>
+    </row>
+    <row r="14" spans="1:21" s="30" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G14"/>
+      <c r="J14" s="38"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="25"/>
+    </row>
+    <row r="15" spans="1:21" s="30" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G15"/>
+      <c r="J15" s="38"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="25"/>
+    </row>
+    <row r="16" spans="1:21" s="30" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G16"/>
+      <c r="J16" s="38"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="25"/>
+    </row>
+    <row r="17" spans="7:18" s="30" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G17"/>
+      <c r="J17" s="38"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="25"/>
+    </row>
+    <row r="18" spans="7:18" s="30" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G18"/>
+      <c r="J18" s="38"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="25"/>
+    </row>
+    <row r="19" spans="7:18" s="30" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G19"/>
+      <c r="J19" s="38"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="25"/>
+    </row>
+    <row r="20" spans="7:18" s="30" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G20"/>
+      <c r="J20" s="38"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="25"/>
+    </row>
+    <row r="21" spans="7:18" s="30" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G21"/>
+      <c r="J21" s="38"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="25"/>
+    </row>
+    <row r="22" spans="7:18" s="30" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G22"/>
+      <c r="J22" s="38"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="25"/>
+    </row>
+    <row r="23" spans="7:18" s="30" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G23"/>
+      <c r="J23" s="38"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="25"/>
+    </row>
+    <row r="24" spans="7:18" s="30" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G24"/>
+      <c r="J24" s="38"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="25"/>
+    </row>
+    <row r="25" spans="7:18" s="30" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G25"/>
+      <c r="J25" s="38"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="25"/>
+    </row>
+    <row r="26" spans="7:18" s="30" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G26"/>
+      <c r="J26" s="38"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="25"/>
+    </row>
+    <row r="27" spans="7:18" s="30" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G27"/>
+      <c r="J27" s="38"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="25"/>
+    </row>
+    <row r="28" spans="7:18" s="30" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G28"/>
+      <c r="J28" s="38"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="25"/>
+    </row>
+    <row r="29" spans="7:18" s="30" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G29"/>
+      <c r="J29" s="38"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="25"/>
+    </row>
+    <row r="30" spans="7:18" s="30" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G30"/>
+      <c r="J30" s="38"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="25"/>
+    </row>
+    <row r="31" spans="7:18" s="30" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G31"/>
+      <c r="J31" s="38"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="25"/>
+    </row>
+    <row r="32" spans="7:18" s="30" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G32"/>
+      <c r="J32" s="38"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="25"/>
+    </row>
+    <row r="33" spans="7:18" s="30" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G33"/>
+      <c r="J33" s="38"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="25"/>
+    </row>
+    <row r="34" spans="7:18" s="30" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G34"/>
+      <c r="J34" s="38"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="25"/>
+    </row>
+    <row r="35" spans="7:18" s="30" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G35"/>
+      <c r="J35" s="38"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="25"/>
+    </row>
+    <row r="36" spans="7:18" s="30" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G36"/>
+      <c r="J36" s="38"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36" s="31"/>
+      <c r="R36" s="25"/>
+    </row>
+    <row r="37" spans="7:18" s="30" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G37"/>
+      <c r="J37" s="38"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="2050" r:id="rId4">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>21</xdr:col>
+                <xdr:colOff>514350</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>27</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>257175</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="2050" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="2051" r:id="rId6">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>21</xdr:col>
+                <xdr:colOff>323850</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>24</xdr:col>
+                <xdr:colOff>381000</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="2051" r:id="rId6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="2049" r:id="rId8">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>21</xdr:col>
+                <xdr:colOff>333375</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>24</xdr:col>
+                <xdr:colOff>590550</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="2049" r:id="rId8"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
